--- a/src/main/resources/excel/留级表.xlsx
+++ b/src/main/resources/excel/留级表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CWH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\javaworkspace\studentManage\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>学生学号</t>
   </si>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>哲学1班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,8 +145,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -413,72 +449,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>461663</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>40073</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
